--- a/request_form.xlsx
+++ b/request_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe.ton\IdeaProjects\VSE_PipeCleaner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB5DBCF-FC54-4F83-ACD4-663D2550DCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DCE478-564F-4826-84B7-698ABFEC9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>06/21/2021</t>
+    <t>08/23/2021</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>02:45 AM</t>
+    <t>04:28 PM</t>
   </si>
   <si>
     <t>User</t>
@@ -66,13 +66,13 @@
     <t>Form</t>
   </si>
   <si>
-    <t>021-000-053</t>
+    <t>021-000-542</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.6.7</t>
+    <t>2.7.3</t>
   </si>
   <si>
     <t>MAIN INFO FILLED</t>
@@ -126,7 +126,7 @@
     <t>Purchase Order</t>
   </si>
   <si>
-    <t>asdf</t>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -2300,7 +2300,7 @@
       <pane xSplit="13" ySplit="11" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,7 +2762,7 @@
       <c r="I10" s="65"/>
       <c r="J10" s="65"/>
       <c r="K10" s="127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="65"/>
       <c r="M10" s="128"/>
